--- a/data/pca/factorExposure/factorExposure_2009-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01729439659995532</v>
+        <v>0.01675280489946377</v>
       </c>
       <c r="C2">
-        <v>0.001559068945330345</v>
+        <v>-0.001157206049218294</v>
       </c>
       <c r="D2">
-        <v>-0.008687275358283486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.00903825204063391</v>
+      </c>
+      <c r="E2">
+        <v>0.001713281247501791</v>
+      </c>
+      <c r="F2">
+        <v>0.01217969980378541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.0905906573145899</v>
+        <v>0.09169932052564754</v>
       </c>
       <c r="C4">
-        <v>0.01972888592322005</v>
+        <v>-0.0149024228720546</v>
       </c>
       <c r="D4">
-        <v>-0.07709493653861432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08187296453018703</v>
+      </c>
+      <c r="E4">
+        <v>0.02692099598059018</v>
+      </c>
+      <c r="F4">
+        <v>-0.03095447950644082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8.527910580869722e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.908218338501715e-07</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.428295154992288e-06</v>
+      </c>
+      <c r="E5">
+        <v>-4.099762302490465e-05</v>
+      </c>
+      <c r="F5">
+        <v>9.703569673064255e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1535565451745742</v>
+        <v>0.161962718912142</v>
       </c>
       <c r="C6">
-        <v>0.02992276206681336</v>
+        <v>-0.02924022418189301</v>
       </c>
       <c r="D6">
-        <v>0.03555017819389842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02574310321782698</v>
+      </c>
+      <c r="E6">
+        <v>0.01194583904679231</v>
+      </c>
+      <c r="F6">
+        <v>-0.04047130528711038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0600450092673459</v>
+        <v>0.06199121844788856</v>
       </c>
       <c r="C7">
-        <v>0.001889125713858664</v>
+        <v>0.001535732202972723</v>
       </c>
       <c r="D7">
-        <v>-0.04805844950859137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05314178023617143</v>
+      </c>
+      <c r="E7">
+        <v>0.01360801809114247</v>
+      </c>
+      <c r="F7">
+        <v>-0.04890004565113642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06132740489132915</v>
+        <v>0.0568647803394079</v>
       </c>
       <c r="C8">
-        <v>-0.01042648035589584</v>
+        <v>0.01232572818393496</v>
       </c>
       <c r="D8">
-        <v>-0.02626783251018204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03069229087567023</v>
+      </c>
+      <c r="E8">
+        <v>0.01673761215645263</v>
+      </c>
+      <c r="F8">
+        <v>0.02706765174954676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06982737122707058</v>
+        <v>0.07097264183417019</v>
       </c>
       <c r="C9">
-        <v>0.01569454954591017</v>
+        <v>-0.01052593190043862</v>
       </c>
       <c r="D9">
-        <v>-0.07892039585005506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.0849392932958708</v>
+      </c>
+      <c r="E9">
+        <v>0.02415065119436762</v>
+      </c>
+      <c r="F9">
+        <v>-0.04756722285107563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08484998940661612</v>
+        <v>0.08682673251756935</v>
       </c>
       <c r="C10">
-        <v>0.01558387431446571</v>
+        <v>-0.02151551271667991</v>
       </c>
       <c r="D10">
-        <v>0.1671806334695996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594462752204062</v>
+      </c>
+      <c r="E10">
+        <v>-0.03373805518272214</v>
+      </c>
+      <c r="F10">
+        <v>0.05778435400547301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09118883583332907</v>
+        <v>0.08777087913237226</v>
       </c>
       <c r="C11">
-        <v>0.0170527428681495</v>
+        <v>-0.01166760081984189</v>
       </c>
       <c r="D11">
-        <v>-0.1095555662942891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169254400455416</v>
+      </c>
+      <c r="E11">
+        <v>0.04812359976641926</v>
+      </c>
+      <c r="F11">
+        <v>-0.02429828079315013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09661803772270894</v>
+        <v>0.09076378967709864</v>
       </c>
       <c r="C12">
-        <v>0.01527263880650803</v>
+        <v>-0.009119089166506058</v>
       </c>
       <c r="D12">
-        <v>-0.1167893564994574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1315629718680002</v>
+      </c>
+      <c r="E12">
+        <v>0.04829392734034945</v>
+      </c>
+      <c r="F12">
+        <v>-0.03099815270181535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04448626824226984</v>
+        <v>0.04347993693167673</v>
       </c>
       <c r="C13">
-        <v>0.006465612036932007</v>
+        <v>-0.002581230469051221</v>
       </c>
       <c r="D13">
-        <v>-0.04346838446990952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05392991592273174</v>
+      </c>
+      <c r="E13">
+        <v>-0.0005753238733724647</v>
+      </c>
+      <c r="F13">
+        <v>-0.004671269001166719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01975729144483643</v>
+        <v>0.02353735838435907</v>
       </c>
       <c r="C14">
-        <v>0.01503690383524476</v>
+        <v>-0.01378041638962212</v>
       </c>
       <c r="D14">
-        <v>-0.03115064183314866</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03221425504881942</v>
+      </c>
+      <c r="E14">
+        <v>0.01836607479126406</v>
+      </c>
+      <c r="F14">
+        <v>-0.01143756679650228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03456761928883779</v>
+        <v>0.03420107254985378</v>
       </c>
       <c r="C15">
-        <v>0.007544717917994999</v>
+        <v>-0.005520796717233454</v>
       </c>
       <c r="D15">
-        <v>-0.04468736500106127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0464651618807198</v>
+      </c>
+      <c r="E15">
+        <v>0.008442961785544247</v>
+      </c>
+      <c r="F15">
+        <v>-0.02921280966260156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07495315487975092</v>
+        <v>0.07255002598257668</v>
       </c>
       <c r="C16">
-        <v>0.007499921050462181</v>
+        <v>-0.001758477017805931</v>
       </c>
       <c r="D16">
-        <v>-0.1144509266892953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1278145764900091</v>
+      </c>
+      <c r="E16">
+        <v>0.06238719040268462</v>
+      </c>
+      <c r="F16">
+        <v>-0.02705461522818807</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0009536428449154391</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002944579696915696</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001929354988928786</v>
+      </c>
+      <c r="E17">
+        <v>0.001579441633564457</v>
+      </c>
+      <c r="F17">
+        <v>0.002507350511025166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0234387773028668</v>
+        <v>0.04129453462321733</v>
       </c>
       <c r="C18">
-        <v>-0.002352417883975916</v>
+        <v>0.002289722640437137</v>
       </c>
       <c r="D18">
-        <v>-0.02360334567823843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01550218004243631</v>
+      </c>
+      <c r="E18">
+        <v>-0.005123937536015763</v>
+      </c>
+      <c r="F18">
+        <v>0.009426546454403358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06372142859099222</v>
+        <v>0.06216644245128645</v>
       </c>
       <c r="C20">
-        <v>0.005233027986215076</v>
+        <v>-0.001134440585004058</v>
       </c>
       <c r="D20">
-        <v>-0.07153932713032689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07869063410028738</v>
+      </c>
+      <c r="E20">
+        <v>0.05820595753620269</v>
+      </c>
+      <c r="F20">
+        <v>-0.02888832993033736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03992806001704505</v>
+        <v>0.04185292081634517</v>
       </c>
       <c r="C21">
-        <v>0.009600574985116579</v>
+        <v>-0.006795475021449351</v>
       </c>
       <c r="D21">
-        <v>-0.03247920387739794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03558693803664405</v>
+      </c>
+      <c r="E21">
+        <v>-0.002040902607497841</v>
+      </c>
+      <c r="F21">
+        <v>0.02453935940428188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04048528285793821</v>
+        <v>0.04387924979889088</v>
       </c>
       <c r="C22">
-        <v>0.001695309935003365</v>
+        <v>-0.0009534019740659453</v>
       </c>
       <c r="D22">
-        <v>-0.0003393040226174183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006753532862161714</v>
+      </c>
+      <c r="E22">
+        <v>0.03681422373823478</v>
+      </c>
+      <c r="F22">
+        <v>0.04660819028409238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0404476282812171</v>
+        <v>0.04385480342819024</v>
       </c>
       <c r="C23">
-        <v>0.001684441921227628</v>
+        <v>-0.0009441405794462288</v>
       </c>
       <c r="D23">
-        <v>-0.0003641721290666819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006767629710010617</v>
+      </c>
+      <c r="E23">
+        <v>0.03699828526931139</v>
+      </c>
+      <c r="F23">
+        <v>0.04658166802322583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08224774749391171</v>
+        <v>0.07831081438295638</v>
       </c>
       <c r="C24">
-        <v>0.008143762190580179</v>
+        <v>-0.002589937603214478</v>
       </c>
       <c r="D24">
-        <v>-0.1139188667917806</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1199284605310077</v>
+      </c>
+      <c r="E24">
+        <v>0.04997816020521451</v>
+      </c>
+      <c r="F24">
+        <v>-0.02973033687475994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0871517058352093</v>
+        <v>0.08354231719318903</v>
       </c>
       <c r="C25">
-        <v>0.01041474331635023</v>
+        <v>-0.005352901907087999</v>
       </c>
       <c r="D25">
-        <v>-0.1017416630145123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1091522397811787</v>
+      </c>
+      <c r="E25">
+        <v>0.03307866375577969</v>
+      </c>
+      <c r="F25">
+        <v>-0.02731596258549715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.057930229744525</v>
+        <v>0.06006013081067596</v>
       </c>
       <c r="C26">
-        <v>0.01800141742439013</v>
+        <v>-0.01473364195909285</v>
       </c>
       <c r="D26">
-        <v>-0.0325681741798334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04356690512973353</v>
+      </c>
+      <c r="E26">
+        <v>0.02989133648735573</v>
+      </c>
+      <c r="F26">
+        <v>0.008374443177120947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1326984486182145</v>
+        <v>0.1419334780706065</v>
       </c>
       <c r="C28">
-        <v>0.01465006344494191</v>
+        <v>-0.02345142941033725</v>
       </c>
       <c r="D28">
-        <v>0.2665808779893976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2604381798880927</v>
+      </c>
+      <c r="E28">
+        <v>-0.06942004578100634</v>
+      </c>
+      <c r="F28">
+        <v>-0.004679572251957483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0263383012069654</v>
+        <v>0.02886252218658849</v>
       </c>
       <c r="C29">
-        <v>0.009839144347362909</v>
+        <v>-0.009051553249572847</v>
       </c>
       <c r="D29">
-        <v>-0.02932833756002969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0299936800789596</v>
+      </c>
+      <c r="E29">
+        <v>0.01335800972301124</v>
+      </c>
+      <c r="F29">
+        <v>0.01394152974217706</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.06002255209056107</v>
+        <v>0.05706793845527341</v>
       </c>
       <c r="C30">
-        <v>0.008055195893546188</v>
+        <v>-0.002702328661260692</v>
       </c>
       <c r="D30">
-        <v>-0.07883944078166609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08768510677743632</v>
+      </c>
+      <c r="E30">
+        <v>0.01405138625941319</v>
+      </c>
+      <c r="F30">
+        <v>-0.07782677956934927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05134293090400133</v>
+        <v>0.05164272551766438</v>
       </c>
       <c r="C31">
-        <v>0.01750701923525334</v>
+        <v>-0.01630397314622186</v>
       </c>
       <c r="D31">
-        <v>-0.02174786238847182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02428669310098984</v>
+      </c>
+      <c r="E31">
+        <v>0.02878970662898352</v>
+      </c>
+      <c r="F31">
+        <v>0.0005570469744173634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04788699011014746</v>
+        <v>0.05179018726600979</v>
       </c>
       <c r="C32">
-        <v>0.002035793348390127</v>
+        <v>0.001331503201628784</v>
       </c>
       <c r="D32">
-        <v>-0.02948213067643273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03398253149278997</v>
+      </c>
+      <c r="E32">
+        <v>0.03321767729173325</v>
+      </c>
+      <c r="F32">
+        <v>-0.002325109634251138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09012425583539696</v>
+        <v>0.08905439689019792</v>
       </c>
       <c r="C33">
-        <v>0.01311032178299648</v>
+        <v>-0.007306333986760231</v>
       </c>
       <c r="D33">
-        <v>-0.08898113358506277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.103108073869694</v>
+      </c>
+      <c r="E33">
+        <v>0.0469386656026475</v>
+      </c>
+      <c r="F33">
+        <v>-0.04243962668421677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06933331433265739</v>
+        <v>0.0673062150381027</v>
       </c>
       <c r="C34">
-        <v>0.01556216480994753</v>
+        <v>-0.01077619777833505</v>
       </c>
       <c r="D34">
-        <v>-0.09604751767636537</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1082820691950574</v>
+      </c>
+      <c r="E34">
+        <v>0.03572568712794075</v>
+      </c>
+      <c r="F34">
+        <v>-0.03457157161539252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02545045025544676</v>
+        <v>0.02680043094374621</v>
       </c>
       <c r="C35">
-        <v>0.003852535754287546</v>
+        <v>-0.003318614908667186</v>
       </c>
       <c r="D35">
-        <v>-0.008152403874662439</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01211579957055904</v>
+      </c>
+      <c r="E35">
+        <v>0.01316327772948095</v>
+      </c>
+      <c r="F35">
+        <v>-0.0003614119790448739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02477210265277627</v>
+        <v>0.02849981835112584</v>
       </c>
       <c r="C36">
-        <v>0.008023753234195311</v>
+        <v>-0.007134790949331957</v>
       </c>
       <c r="D36">
-        <v>-0.03898110479104778</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03894182520067806</v>
+      </c>
+      <c r="E36">
+        <v>0.01776705353099364</v>
+      </c>
+      <c r="F36">
+        <v>-0.01381006468754666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001698376664364563</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007218290711956705</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002787377298465123</v>
+      </c>
+      <c r="E37">
+        <v>0.000224231074415183</v>
+      </c>
+      <c r="F37">
+        <v>0.001656220844289348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1113780957514189</v>
+        <v>0.1002422628326276</v>
       </c>
       <c r="C39">
-        <v>0.02296976515781895</v>
+        <v>-0.01638052055184193</v>
       </c>
       <c r="D39">
-        <v>-0.1464860146583097</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1505901134685624</v>
+      </c>
+      <c r="E39">
+        <v>0.05923719553974154</v>
+      </c>
+      <c r="F39">
+        <v>-0.02078513368194493</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03867625948129287</v>
+        <v>0.04393030866546475</v>
       </c>
       <c r="C40">
-        <v>0.009382302644182831</v>
+        <v>-0.007885801170672845</v>
       </c>
       <c r="D40">
-        <v>-0.02331036886844419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03250789440950968</v>
+      </c>
+      <c r="E40">
+        <v>0.002155798420278968</v>
+      </c>
+      <c r="F40">
+        <v>0.01544938235821418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02503780335974288</v>
+        <v>0.0268111904804955</v>
       </c>
       <c r="C41">
-        <v>0.007369501153610298</v>
+        <v>-0.006877292717303241</v>
       </c>
       <c r="D41">
-        <v>-0.008348383322130642</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0104412328863546</v>
+      </c>
+      <c r="E41">
+        <v>0.01147298828347422</v>
+      </c>
+      <c r="F41">
+        <v>0.007439284023826332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04207967591921827</v>
+        <v>0.04018147367605159</v>
       </c>
       <c r="C43">
-        <v>0.008503775234251084</v>
+        <v>-0.007841679647336851</v>
       </c>
       <c r="D43">
-        <v>-0.01635481044482481</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01892992369924207</v>
+      </c>
+      <c r="E43">
+        <v>0.02544006831920398</v>
+      </c>
+      <c r="F43">
+        <v>0.01627975586948492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06865589546500483</v>
+        <v>0.07797430121813095</v>
       </c>
       <c r="C44">
-        <v>0.02438544716166122</v>
+        <v>-0.01991719542997407</v>
       </c>
       <c r="D44">
-        <v>-0.09490322251015564</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09645128296664846</v>
+      </c>
+      <c r="E44">
+        <v>0.06310096054831274</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678371670618133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02127949724902992</v>
+        <v>0.02429745806776379</v>
       </c>
       <c r="C46">
-        <v>0.004530954984900828</v>
+        <v>-0.003655989025884905</v>
       </c>
       <c r="D46">
-        <v>-0.008595494879472761</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01214336185109466</v>
+      </c>
+      <c r="E46">
+        <v>0.02606979497119847</v>
+      </c>
+      <c r="F46">
+        <v>0.005646584400594714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05336668592019671</v>
+        <v>0.05255954194988703</v>
       </c>
       <c r="C47">
-        <v>0.005386251742905626</v>
+        <v>-0.004582610521727582</v>
       </c>
       <c r="D47">
-        <v>-0.007101024217172387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01081863062653484</v>
+      </c>
+      <c r="E47">
+        <v>0.02333438603416621</v>
+      </c>
+      <c r="F47">
+        <v>0.03179618221088976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04896026899975247</v>
+        <v>0.05143467301521708</v>
       </c>
       <c r="C48">
-        <v>0.005129048109584726</v>
+        <v>-0.00250383357591273</v>
       </c>
       <c r="D48">
-        <v>-0.04645586621438825</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0498374060644256</v>
+      </c>
+      <c r="E48">
+        <v>-0.004158679244469091</v>
+      </c>
+      <c r="F48">
+        <v>-0.01249483779456424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1989858147343457</v>
+        <v>0.200390054891913</v>
       </c>
       <c r="C49">
-        <v>0.02283136640645179</v>
+        <v>-0.02124341917938454</v>
       </c>
       <c r="D49">
-        <v>0.01555541922292378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005706031354942723</v>
+      </c>
+      <c r="E49">
+        <v>0.03290680346846066</v>
+      </c>
+      <c r="F49">
+        <v>-0.04923046050238792</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04916347636757017</v>
+        <v>0.05128834096926688</v>
       </c>
       <c r="C50">
-        <v>0.01310288328077678</v>
+        <v>-0.0118584139452888</v>
       </c>
       <c r="D50">
-        <v>-0.02123914533786747</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02334540737147471</v>
+      </c>
+      <c r="E50">
+        <v>0.03002442407453111</v>
+      </c>
+      <c r="F50">
+        <v>-0.009037407983549763</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1556080062333806</v>
+        <v>0.1486280697501344</v>
       </c>
       <c r="C52">
-        <v>0.02129956321093798</v>
+        <v>-0.01938717437436998</v>
       </c>
       <c r="D52">
-        <v>-0.04181105065682401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04261060366045028</v>
+      </c>
+      <c r="E52">
+        <v>0.02328813232231616</v>
+      </c>
+      <c r="F52">
+        <v>-0.04180610355920559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1745175845373308</v>
+        <v>0.1689824072503825</v>
       </c>
       <c r="C53">
-        <v>0.02218776333909275</v>
+        <v>-0.02242398750863196</v>
       </c>
       <c r="D53">
-        <v>-0.006913013215604264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005966422323510819</v>
+      </c>
+      <c r="E53">
+        <v>0.03115213974825372</v>
+      </c>
+      <c r="F53">
+        <v>-0.07500795466590153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01795384551374828</v>
+        <v>0.0199486544197084</v>
       </c>
       <c r="C54">
-        <v>0.01231410696364967</v>
+        <v>-0.01111011476019577</v>
       </c>
       <c r="D54">
-        <v>-0.03030767353805766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03112243748623816</v>
+      </c>
+      <c r="E54">
+        <v>0.0202103012746759</v>
+      </c>
+      <c r="F54">
+        <v>0.002183314950559689</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1182733779717562</v>
+        <v>0.1165932027601646</v>
       </c>
       <c r="C55">
-        <v>0.01958018791824001</v>
+        <v>-0.01959247810357128</v>
       </c>
       <c r="D55">
-        <v>-0.004943341590775949</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008187863818160697</v>
+      </c>
+      <c r="E55">
+        <v>0.02706302603131578</v>
+      </c>
+      <c r="F55">
+        <v>-0.04654831191631905</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807909651439519</v>
+        <v>0.1759460767856984</v>
       </c>
       <c r="C56">
-        <v>0.02018024989576222</v>
+        <v>-0.02059329207321328</v>
       </c>
       <c r="D56">
-        <v>0.007146583361889147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003124256799953031</v>
+      </c>
+      <c r="E56">
+        <v>0.0332940917044989</v>
+      </c>
+      <c r="F56">
+        <v>-0.05532485446597583</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04768710106889281</v>
+        <v>0.04594957000859455</v>
       </c>
       <c r="C58">
-        <v>0.005019992038268763</v>
+        <v>-0.0003715583382485065</v>
       </c>
       <c r="D58">
-        <v>-0.06588746716294122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0758178263372562</v>
+      </c>
+      <c r="E58">
+        <v>0.0363380414065231</v>
+      </c>
+      <c r="F58">
+        <v>0.03847191572141304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1597280300970863</v>
+        <v>0.1663486768285553</v>
       </c>
       <c r="C59">
-        <v>0.01647193009324379</v>
+        <v>-0.02373311461172184</v>
       </c>
       <c r="D59">
-        <v>0.2267071856582729</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2174815791302577</v>
+      </c>
+      <c r="E59">
+        <v>-0.05063573959428177</v>
+      </c>
+      <c r="F59">
+        <v>0.038830861137284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2388201739439715</v>
+        <v>0.2305144780609407</v>
       </c>
       <c r="C60">
-        <v>0.004138755346603649</v>
+        <v>-0.001291409704748637</v>
       </c>
       <c r="D60">
-        <v>-0.03467551932934324</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03795036882046902</v>
+      </c>
+      <c r="E60">
+        <v>0.005632139393943533</v>
+      </c>
+      <c r="F60">
+        <v>-0.007009588592201593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08192634402403741</v>
+        <v>0.07510348671568916</v>
       </c>
       <c r="C61">
-        <v>0.01685314086587431</v>
+        <v>-0.01134157726158096</v>
       </c>
       <c r="D61">
-        <v>-0.108888298278895</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1156822560034341</v>
+      </c>
+      <c r="E61">
+        <v>0.03712944509906251</v>
+      </c>
+      <c r="F61">
+        <v>-0.007081014969014392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1731862529304126</v>
+        <v>0.1694330945924786</v>
       </c>
       <c r="C62">
-        <v>0.02407243666738653</v>
+        <v>-0.02343376749974095</v>
       </c>
       <c r="D62">
-        <v>-0.0001653646960926971</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006025494283592159</v>
+      </c>
+      <c r="E62">
+        <v>0.03544963505959788</v>
+      </c>
+      <c r="F62">
+        <v>-0.04140683145563028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04124745564532378</v>
+        <v>0.04543442864433565</v>
       </c>
       <c r="C63">
-        <v>0.005318325940745687</v>
+        <v>-0.001947692394817008</v>
       </c>
       <c r="D63">
-        <v>-0.04868976037511483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05961283027953103</v>
+      </c>
+      <c r="E63">
+        <v>0.02385534515910855</v>
+      </c>
+      <c r="F63">
+        <v>-0.0001231507734488054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1138001903548135</v>
+        <v>0.1110804117461292</v>
       </c>
       <c r="C64">
-        <v>0.01629245473396559</v>
+        <v>-0.01326117416934635</v>
       </c>
       <c r="D64">
-        <v>-0.03345032180959696</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04163804510756131</v>
+      </c>
+      <c r="E64">
+        <v>0.02386641998330042</v>
+      </c>
+      <c r="F64">
+        <v>-0.0263362222310266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1456357110553518</v>
+        <v>0.1523404194487148</v>
       </c>
       <c r="C65">
-        <v>0.0362268611274023</v>
+        <v>-0.03628316397832403</v>
       </c>
       <c r="D65">
-        <v>0.05864746286581541</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04565523934498266</v>
+      </c>
+      <c r="E65">
+        <v>0.008635441193724962</v>
+      </c>
+      <c r="F65">
+        <v>-0.03787558818865285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1340318571012931</v>
+        <v>0.1202958609126582</v>
       </c>
       <c r="C66">
-        <v>0.02146439417966963</v>
+        <v>-0.01473860584872571</v>
       </c>
       <c r="D66">
-        <v>-0.128754831242608</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1395812509474311</v>
+      </c>
+      <c r="E66">
+        <v>0.06397979732314654</v>
+      </c>
+      <c r="F66">
+        <v>-0.02636397545479323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06369335067226507</v>
+        <v>0.05632212116341736</v>
       </c>
       <c r="C67">
-        <v>0.006107923005050995</v>
+        <v>-0.003821813353542746</v>
       </c>
       <c r="D67">
-        <v>-0.05449170302000777</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05798778557897633</v>
+      </c>
+      <c r="E67">
+        <v>0.02022968875897777</v>
+      </c>
+      <c r="F67">
+        <v>0.03446357439108042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.105836239827445</v>
+        <v>0.116555029947335</v>
       </c>
       <c r="C68">
-        <v>0.02466815978830708</v>
+        <v>-0.0341943199822048</v>
       </c>
       <c r="D68">
-        <v>0.2643286967718684</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612027348720179</v>
+      </c>
+      <c r="E68">
+        <v>-0.09060823888170216</v>
+      </c>
+      <c r="F68">
+        <v>-0.001410947714225259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0389835776618437</v>
+        <v>0.03794934755435533</v>
       </c>
       <c r="C69">
-        <v>0.0022481379362647</v>
+        <v>-0.001363837769596477</v>
       </c>
       <c r="D69">
-        <v>-0.007149415364400662</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00867270691344192</v>
+      </c>
+      <c r="E69">
+        <v>0.02427556134130473</v>
+      </c>
+      <c r="F69">
+        <v>0.0004001837521144265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06619194225651326</v>
+        <v>0.06682089287913774</v>
       </c>
       <c r="C70">
-        <v>-0.02424093721343815</v>
+        <v>0.02669127916787505</v>
       </c>
       <c r="D70">
-        <v>-0.02034720585911742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02627111313884825</v>
+      </c>
+      <c r="E70">
+        <v>-0.03080419602210811</v>
+      </c>
+      <c r="F70">
+        <v>0.1818249589774518</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1247515162963402</v>
+        <v>0.1365671654666319</v>
       </c>
       <c r="C71">
-        <v>0.02933306802457617</v>
+        <v>-0.03886163354681875</v>
       </c>
       <c r="D71">
-        <v>0.2807491274320493</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2708719015119403</v>
+      </c>
+      <c r="E71">
+        <v>-0.09945750134044427</v>
+      </c>
+      <c r="F71">
+        <v>-0.006902173966551265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1370979326283545</v>
+        <v>0.1439055504068675</v>
       </c>
       <c r="C72">
-        <v>0.02862513547318656</v>
+        <v>-0.02916334951769866</v>
       </c>
       <c r="D72">
-        <v>-0.00100103969310748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004009500056106559</v>
+      </c>
+      <c r="E72">
+        <v>0.03942714306831011</v>
+      </c>
+      <c r="F72">
+        <v>-0.02691023675796391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2039276042768144</v>
+        <v>0.204048481916029</v>
       </c>
       <c r="C73">
-        <v>0.0179768950456119</v>
+        <v>-0.01446083768486547</v>
       </c>
       <c r="D73">
-        <v>-0.006262675149294766</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01715127149073774</v>
+      </c>
+      <c r="E73">
+        <v>0.06707733147272964</v>
+      </c>
+      <c r="F73">
+        <v>-0.04428360074352367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.0920888423629489</v>
+        <v>0.09337565062786414</v>
       </c>
       <c r="C74">
-        <v>0.01478417951242741</v>
+        <v>-0.01435020353338287</v>
       </c>
       <c r="D74">
-        <v>-0.01522180990607407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01702392664308576</v>
+      </c>
+      <c r="E74">
+        <v>0.044302608321317</v>
+      </c>
+      <c r="F74">
+        <v>-0.05226779002269908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1339657827165225</v>
+        <v>0.1263534828676343</v>
       </c>
       <c r="C75">
-        <v>0.0318862678195343</v>
+        <v>-0.03025751698334186</v>
       </c>
       <c r="D75">
-        <v>-0.0234103836283573</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02920341657871119</v>
+      </c>
+      <c r="E75">
+        <v>0.05799712853914334</v>
+      </c>
+      <c r="F75">
+        <v>-0.0212560636200047</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08256366381433014</v>
+        <v>0.09233965649846132</v>
       </c>
       <c r="C77">
-        <v>0.01415524373041601</v>
+        <v>-0.008920916642358974</v>
       </c>
       <c r="D77">
-        <v>-0.1123812324645975</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1157706509091435</v>
+      </c>
+      <c r="E77">
+        <v>0.04902944425922232</v>
+      </c>
+      <c r="F77">
+        <v>-0.03512951375149344</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1012126226888868</v>
+        <v>0.101070299382013</v>
       </c>
       <c r="C78">
-        <v>0.04409018521170533</v>
+        <v>-0.03957499102615406</v>
       </c>
       <c r="D78">
-        <v>-0.1124741634170957</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1123811969062588</v>
+      </c>
+      <c r="E78">
+        <v>0.08030276777225219</v>
+      </c>
+      <c r="F78">
+        <v>-0.05229983721316448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1662478284175167</v>
+        <v>0.1633288971344493</v>
       </c>
       <c r="C79">
-        <v>0.02674734283028743</v>
+        <v>-0.02569913128961793</v>
       </c>
       <c r="D79">
-        <v>-0.005912034371101864</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01149665396758595</v>
+      </c>
+      <c r="E79">
+        <v>0.04427449163114974</v>
+      </c>
+      <c r="F79">
+        <v>-0.0128378742067244</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08192578126124038</v>
+        <v>0.08000882610783919</v>
       </c>
       <c r="C80">
-        <v>0.002504247308643938</v>
+        <v>0.0001545291624661092</v>
       </c>
       <c r="D80">
-        <v>-0.05232173792590956</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05396604950264304</v>
+      </c>
+      <c r="E80">
+        <v>0.03401743333799152</v>
+      </c>
+      <c r="F80">
+        <v>0.02685740146684654</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1213986336106825</v>
+        <v>0.1166148038168515</v>
       </c>
       <c r="C81">
-        <v>0.03400278560731423</v>
+        <v>-0.03370115954181638</v>
       </c>
       <c r="D81">
-        <v>-0.008051369466924509</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01238381176808936</v>
+      </c>
+      <c r="E81">
+        <v>0.05428566912397782</v>
+      </c>
+      <c r="F81">
+        <v>-0.01780341944441166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1661055314203752</v>
+        <v>0.1649548595692475</v>
       </c>
       <c r="C82">
-        <v>0.0273755381586508</v>
+        <v>-0.02793227437548261</v>
       </c>
       <c r="D82">
-        <v>-0.004854516364336529</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002915102413938034</v>
+      </c>
+      <c r="E82">
+        <v>0.02890558107937527</v>
+      </c>
+      <c r="F82">
+        <v>-0.08257189610758585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06373488935394542</v>
+        <v>0.05739879257170628</v>
       </c>
       <c r="C83">
-        <v>0.005952967784385148</v>
+        <v>-0.003565559735346112</v>
       </c>
       <c r="D83">
-        <v>-0.04435548254094131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04728721044754973</v>
+      </c>
+      <c r="E83">
+        <v>0.0006668163879736054</v>
+      </c>
+      <c r="F83">
+        <v>0.03662375191672013</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06107061502306919</v>
+        <v>0.05532900697746043</v>
       </c>
       <c r="C84">
-        <v>0.01361535549895967</v>
+        <v>-0.01096203246453075</v>
       </c>
       <c r="D84">
-        <v>-0.06930623457965261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07226065181264704</v>
+      </c>
+      <c r="E84">
+        <v>0.01381422172590311</v>
+      </c>
+      <c r="F84">
+        <v>-0.01478352000284393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1394873078634997</v>
+        <v>0.1351081389151164</v>
       </c>
       <c r="C85">
-        <v>0.03074338521153669</v>
+        <v>-0.0304851970787957</v>
       </c>
       <c r="D85">
-        <v>-0.006660150108708748</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008929987747010985</v>
+      </c>
+      <c r="E85">
+        <v>0.03698436850377299</v>
+      </c>
+      <c r="F85">
+        <v>-0.04805060432427276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1021947356242545</v>
+        <v>0.09334637918191041</v>
       </c>
       <c r="C86">
-        <v>-0.002540642047054177</v>
+        <v>0.00518008799331068</v>
       </c>
       <c r="D86">
-        <v>-0.01376442780934932</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0495412123949345</v>
+      </c>
+      <c r="E86">
+        <v>0.2196419360057861</v>
+      </c>
+      <c r="F86">
+        <v>0.8995361265102049</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09670000303645709</v>
+        <v>0.09307456772658503</v>
       </c>
       <c r="C87">
-        <v>0.02836159220792739</v>
+        <v>-0.02020963053153232</v>
       </c>
       <c r="D87">
-        <v>-0.07293406096598484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.094894480471961</v>
+      </c>
+      <c r="E87">
+        <v>-0.05203530233399044</v>
+      </c>
+      <c r="F87">
+        <v>-0.05057257019061419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06255609000705806</v>
+        <v>0.06089275662352241</v>
       </c>
       <c r="C88">
-        <v>0.005565345738992118</v>
+        <v>-0.002828852256208738</v>
       </c>
       <c r="D88">
-        <v>-0.04940504960734922</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04952397626177544</v>
+      </c>
+      <c r="E88">
+        <v>0.02447567927055198</v>
+      </c>
+      <c r="F88">
+        <v>-0.0138051709334929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1164547635545687</v>
+        <v>0.1264162412064144</v>
       </c>
       <c r="C89">
-        <v>0.005808307130786641</v>
+        <v>-0.01431916602062978</v>
       </c>
       <c r="D89">
-        <v>0.2429427368738819</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2425800336476085</v>
+      </c>
+      <c r="E89">
+        <v>-0.09265944562660204</v>
+      </c>
+      <c r="F89">
+        <v>0.007539219802981894</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1371804375761104</v>
+        <v>0.151759403357293</v>
       </c>
       <c r="C90">
-        <v>0.02565581476975074</v>
+        <v>-0.03567662150293897</v>
       </c>
       <c r="D90">
-        <v>0.267362113539044</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2683183793857236</v>
+      </c>
+      <c r="E90">
+        <v>-0.1155181934817</v>
+      </c>
+      <c r="F90">
+        <v>0.008078647398987615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1215825033144116</v>
+        <v>0.1201072585382714</v>
       </c>
       <c r="C91">
-        <v>0.02145296200111175</v>
+        <v>-0.02183369887372457</v>
       </c>
       <c r="D91">
-        <v>0.02005830476582144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01729215495362058</v>
+      </c>
+      <c r="E91">
+        <v>0.05356242980429555</v>
+      </c>
+      <c r="F91">
+        <v>0.001680924942188742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1368366638425728</v>
+        <v>0.1445567449641632</v>
       </c>
       <c r="C92">
-        <v>0.01636818448424619</v>
+        <v>-0.02651353596837081</v>
       </c>
       <c r="D92">
-        <v>0.2995689674520607</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2935439009834883</v>
+      </c>
+      <c r="E92">
+        <v>-0.1048585611626005</v>
+      </c>
+      <c r="F92">
+        <v>0.01771645181263336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1402616686443572</v>
+        <v>0.1530676841813922</v>
       </c>
       <c r="C93">
-        <v>0.0218633478559621</v>
+        <v>-0.03082616178697088</v>
       </c>
       <c r="D93">
-        <v>0.267070805564059</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2647085196941846</v>
+      </c>
+      <c r="E93">
+        <v>-0.07787524305347522</v>
+      </c>
+      <c r="F93">
+        <v>-0.003012129858581602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1338397262858524</v>
+        <v>0.1260175095435568</v>
       </c>
       <c r="C94">
-        <v>0.0282678395723143</v>
+        <v>-0.02625022389238269</v>
       </c>
       <c r="D94">
-        <v>-0.03826654105639136</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04066639383858295</v>
+      </c>
+      <c r="E94">
+        <v>0.05795000093357327</v>
+      </c>
+      <c r="F94">
+        <v>-0.03131610900075939</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.12705553898041</v>
+        <v>0.1295345293529953</v>
       </c>
       <c r="C95">
-        <v>0.01038135364621167</v>
+        <v>-0.005008032472336297</v>
       </c>
       <c r="D95">
-        <v>-0.08692894884593733</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09716704543878847</v>
+      </c>
+      <c r="E95">
+        <v>0.05692977692220896</v>
+      </c>
+      <c r="F95">
+        <v>-0.001640035423005325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1277089357651129</v>
+        <v>0.1216160578358915</v>
       </c>
       <c r="C96">
-        <v>-0.9861357992548385</v>
+        <v>0.9857878070442043</v>
       </c>
       <c r="D96">
-        <v>0.0185954893620538</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05128739068219708</v>
+      </c>
+      <c r="E96">
+        <v>0.0514473811382742</v>
+      </c>
+      <c r="F96">
+        <v>-0.04207298689738666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1941413335751557</v>
+        <v>0.1974980833316868</v>
       </c>
       <c r="C97">
-        <v>-0.003070901523643344</v>
+        <v>0.003343591643278978</v>
       </c>
       <c r="D97">
-        <v>0.02253483803894762</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02310061947299758</v>
+      </c>
+      <c r="E97">
+        <v>0.02298758244322284</v>
+      </c>
+      <c r="F97">
+        <v>0.1195966288498642</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2003801577691224</v>
+        <v>0.2064383266228834</v>
       </c>
       <c r="C98">
-        <v>0.01288030177965324</v>
+        <v>-0.009039182069177519</v>
       </c>
       <c r="D98">
-        <v>-0.01257942822749038</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01456146741462839</v>
+      </c>
+      <c r="E98">
+        <v>-0.07434297492943233</v>
+      </c>
+      <c r="F98">
+        <v>0.09074493012066542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05585518174253722</v>
+        <v>0.05525663164171699</v>
       </c>
       <c r="C99">
-        <v>-0.001589118767391328</v>
+        <v>0.003730244444796004</v>
       </c>
       <c r="D99">
-        <v>-0.03125306966521777</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03900457838734696</v>
+      </c>
+      <c r="E99">
+        <v>0.02243155320457398</v>
+      </c>
+      <c r="F99">
+        <v>-0.002719203334709222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1478705671530608</v>
+        <v>0.1327615601496211</v>
       </c>
       <c r="C100">
-        <v>-0.03685745471333257</v>
+        <v>0.04957420902679452</v>
       </c>
       <c r="D100">
-        <v>-0.3918197716103941</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3576961277056</v>
+      </c>
+      <c r="E100">
+        <v>-0.8837582824340946</v>
+      </c>
+      <c r="F100">
+        <v>0.1455388601959365</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02635640174050572</v>
+        <v>0.02892155717849279</v>
       </c>
       <c r="C101">
-        <v>0.009861542666614678</v>
+        <v>-0.009083267321941925</v>
       </c>
       <c r="D101">
-        <v>-0.02896704726560791</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02962701538243636</v>
+      </c>
+      <c r="E101">
+        <v>0.01282911539390712</v>
+      </c>
+      <c r="F101">
+        <v>0.01529119205644417</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
